--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="135">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,364 +43,376 @@
     <t>poorly</t>
   </si>
   <si>
-    <t>defective</t>
+    <t>disappointing</t>
   </si>
   <si>
     <t>useless</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
     <t>stopped</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>broke</t>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>purchased</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
   <si>
     <t>product</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>purchased</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>easily</t>
-  </si>
-  <si>
-    <t>purchase</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>price</t>
   </si>
   <si>
     <t>would</t>
@@ -764,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q113"/>
+  <dimension ref="A1:Q116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -775,7 +787,7 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -833,13 +845,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -851,19 +863,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -875,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -883,13 +895,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7391304347826086</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -901,19 +913,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K4">
-        <v>0.890625</v>
+        <v>0.8828125</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M4">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -925,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -933,13 +945,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6</v>
+        <v>0.525</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -951,19 +963,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K5">
-        <v>0.8840579710144928</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -975,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -983,13 +995,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5555555555555556</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1001,19 +1013,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K6">
-        <v>0.8777089783281734</v>
+        <v>0.8498452012383901</v>
       </c>
       <c r="L6">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="M6">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1025,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1033,13 +1045,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3773584905660378</v>
+        <v>0.4108527131782946</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1051,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K7">
-        <v>0.7534246575342466</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L7">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M7">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1075,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1083,13 +1095,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3737373737373738</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C8">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1101,19 +1113,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K8">
-        <v>0.7316017316017316</v>
+        <v>0.7489177489177489</v>
       </c>
       <c r="L8">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M8">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1125,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1133,13 +1145,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3565891472868217</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="C9">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1151,19 +1163,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K9">
-        <v>0.7272727272727273</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="M9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1175,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1183,13 +1195,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1201,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K10">
-        <v>0.7016949152542373</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="L10">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c r="M10">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1225,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>88</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1233,13 +1245,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2222222222222222</v>
+        <v>0.2378378378378379</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1251,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K11">
-        <v>0.6896551724137931</v>
+        <v>0.6829855537720706</v>
       </c>
       <c r="L11">
-        <v>20</v>
+        <v>851</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>851</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1275,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1283,13 +1295,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2054054054054054</v>
+        <v>0.1844660194174757</v>
       </c>
       <c r="C12">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1301,19 +1313,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K12">
-        <v>0.6818181818181818</v>
+        <v>0.6745762711864407</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1325,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1333,37 +1345,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0203804347826087</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C13">
         <v>15</v>
       </c>
       <c r="D13">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E13">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>721</v>
+        <v>75</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K13">
-        <v>0.6764705882352942</v>
+        <v>0.6714285714285714</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1375,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1383,13 +1395,13 @@
         <v>31</v>
       </c>
       <c r="K14">
-        <v>0.6685714285714286</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L14">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1401,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>58</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1409,13 +1421,13 @@
         <v>32</v>
       </c>
       <c r="K15">
-        <v>0.6613162118780096</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L15">
-        <v>824</v>
+        <v>29</v>
       </c>
       <c r="M15">
-        <v>824</v>
+        <v>29</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1427,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>422</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1435,13 +1447,13 @@
         <v>33</v>
       </c>
       <c r="K16">
-        <v>0.6521739130434783</v>
+        <v>0.64</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="M16">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1453,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1461,13 +1473,13 @@
         <v>34</v>
       </c>
       <c r="K17">
-        <v>0.625</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="L17">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1479,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1487,13 +1499,13 @@
         <v>35</v>
       </c>
       <c r="K18">
-        <v>0.6239316239316239</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L18">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1505,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1539,13 +1551,13 @@
         <v>37</v>
       </c>
       <c r="K20">
-        <v>0.6057692307692307</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L20">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1557,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1565,13 +1577,13 @@
         <v>38</v>
       </c>
       <c r="K21">
-        <v>0.5808383233532934</v>
+        <v>0.5903614457831325</v>
       </c>
       <c r="L21">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="M21">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1583,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1591,13 +1603,13 @@
         <v>39</v>
       </c>
       <c r="K22">
-        <v>0.5662650602409639</v>
+        <v>0.5865384615384616</v>
       </c>
       <c r="L22">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="M22">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1609,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1617,13 +1629,13 @@
         <v>40</v>
       </c>
       <c r="K23">
-        <v>0.5555555555555556</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1635,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1643,13 +1655,13 @@
         <v>41</v>
       </c>
       <c r="K24">
-        <v>0.5492957746478874</v>
+        <v>0.5726495726495726</v>
       </c>
       <c r="L24">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="M24">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1661,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1669,13 +1681,13 @@
         <v>42</v>
       </c>
       <c r="K25">
-        <v>0.5488721804511278</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L25">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M25">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1687,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1695,13 +1707,13 @@
         <v>43</v>
       </c>
       <c r="K26">
-        <v>0.5263157894736842</v>
+        <v>0.5389221556886228</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1713,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1721,13 +1733,13 @@
         <v>44</v>
       </c>
       <c r="K27">
-        <v>0.5142857142857142</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="L27">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1739,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1747,13 +1759,13 @@
         <v>45</v>
       </c>
       <c r="K28">
-        <v>0.4868421052631579</v>
+        <v>0.5</v>
       </c>
       <c r="L28">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="M28">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1765,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>39</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1773,13 +1785,13 @@
         <v>46</v>
       </c>
       <c r="K29">
-        <v>0.459016393442623</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1791,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1799,13 +1811,13 @@
         <v>47</v>
       </c>
       <c r="K30">
-        <v>0.4571428571428571</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L30">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1817,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1825,13 +1837,13 @@
         <v>48</v>
       </c>
       <c r="K31">
-        <v>0.4397590361445783</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L31">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="M31">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1843,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>93</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1851,13 +1863,13 @@
         <v>49</v>
       </c>
       <c r="K32">
-        <v>0.4375</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1869,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1877,13 +1889,13 @@
         <v>50</v>
       </c>
       <c r="K33">
-        <v>0.4358974358974359</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1895,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1903,13 +1915,13 @@
         <v>51</v>
       </c>
       <c r="K34">
-        <v>0.4264705882352941</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L34">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1921,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>234</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1929,13 +1941,13 @@
         <v>52</v>
       </c>
       <c r="K35">
-        <v>0.4202334630350195</v>
+        <v>0.4387254901960784</v>
       </c>
       <c r="L35">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="M35">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1947,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>149</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1955,25 +1967,25 @@
         <v>53</v>
       </c>
       <c r="K36">
-        <v>0.4153846153846154</v>
+        <v>0.4375</v>
       </c>
       <c r="L36">
+        <v>21</v>
+      </c>
+      <c r="M36">
+        <v>21</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>27</v>
-      </c>
-      <c r="M36">
-        <v>27</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>38</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1981,13 +1993,13 @@
         <v>54</v>
       </c>
       <c r="K37">
-        <v>0.4153846153846154</v>
+        <v>0.4342105263157895</v>
       </c>
       <c r="L37">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M37">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1999,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2007,13 +2019,13 @@
         <v>55</v>
       </c>
       <c r="K38">
-        <v>0.41</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L38">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="M38">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2025,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2033,13 +2045,13 @@
         <v>56</v>
       </c>
       <c r="K39">
-        <v>0.4081632653061225</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L39">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2051,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2059,13 +2071,13 @@
         <v>57</v>
       </c>
       <c r="K40">
-        <v>0.3963963963963964</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L40">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2077,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2085,13 +2097,13 @@
         <v>58</v>
       </c>
       <c r="K41">
-        <v>0.392156862745098</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L41">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M41">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2103,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2111,13 +2123,13 @@
         <v>59</v>
       </c>
       <c r="K42">
-        <v>0.3877551020408163</v>
+        <v>0.4085603112840467</v>
       </c>
       <c r="L42">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="M42">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2129,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>30</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2137,13 +2149,13 @@
         <v>60</v>
       </c>
       <c r="K43">
-        <v>0.3815789473684211</v>
+        <v>0.4</v>
       </c>
       <c r="L43">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M43">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2155,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2163,13 +2175,13 @@
         <v>61</v>
       </c>
       <c r="K44">
-        <v>0.3779904306220095</v>
+        <v>0.3984962406015037</v>
       </c>
       <c r="L44">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="M44">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2181,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>130</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2189,13 +2201,13 @@
         <v>62</v>
       </c>
       <c r="K45">
-        <v>0.3767123287671233</v>
+        <v>0.375</v>
       </c>
       <c r="L45">
-        <v>275</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>275</v>
+        <v>21</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2207,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>455</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2215,13 +2227,13 @@
         <v>63</v>
       </c>
       <c r="K46">
-        <v>0.3709677419354839</v>
+        <v>0.3564356435643564</v>
       </c>
       <c r="L46">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M46">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2233,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2241,13 +2253,13 @@
         <v>64</v>
       </c>
       <c r="K47">
-        <v>0.3533834586466165</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="L47">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="M47">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2259,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>86</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2267,25 +2279,25 @@
         <v>65</v>
       </c>
       <c r="K48">
-        <v>0.3373493975903614</v>
+        <v>0.3520547945205479</v>
       </c>
       <c r="L48">
-        <v>28</v>
+        <v>257</v>
       </c>
       <c r="M48">
-        <v>29</v>
+        <v>257</v>
       </c>
       <c r="N48">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>55</v>
+        <v>473</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2293,13 +2305,13 @@
         <v>66</v>
       </c>
       <c r="K49">
-        <v>0.3333333333333333</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="L49">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M49">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2311,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2319,13 +2331,13 @@
         <v>67</v>
       </c>
       <c r="K50">
-        <v>0.3214285714285715</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="L50">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M50">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2337,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2345,13 +2357,13 @@
         <v>68</v>
       </c>
       <c r="K51">
-        <v>0.3196986006458558</v>
+        <v>0.3362068965517241</v>
       </c>
       <c r="L51">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="M51">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2360,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>632</v>
+        <v>616</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2371,13 +2383,13 @@
         <v>69</v>
       </c>
       <c r="K52">
-        <v>0.316546762589928</v>
+        <v>0.3301435406698565</v>
       </c>
       <c r="L52">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="M52">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2389,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>95</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2397,13 +2409,13 @@
         <v>70</v>
       </c>
       <c r="K53">
-        <v>0.3148148148148148</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="L53">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M53">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2415,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>74</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2423,13 +2435,13 @@
         <v>71</v>
       </c>
       <c r="K54">
-        <v>0.308641975308642</v>
+        <v>0.31</v>
       </c>
       <c r="L54">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M54">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2441,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2449,13 +2461,13 @@
         <v>72</v>
       </c>
       <c r="K55">
-        <v>0.2980132450331126</v>
+        <v>0.2976190476190476</v>
       </c>
       <c r="L55">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M55">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2467,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>106</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2475,13 +2487,13 @@
         <v>73</v>
       </c>
       <c r="K56">
-        <v>0.2852664576802508</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="L56">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="M56">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2493,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>228</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2501,13 +2513,13 @@
         <v>74</v>
       </c>
       <c r="K57">
-        <v>0.2794701986754967</v>
+        <v>0.2877697841726619</v>
       </c>
       <c r="L57">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="M57">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2519,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>544</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2527,25 +2539,25 @@
         <v>75</v>
       </c>
       <c r="K58">
-        <v>0.2666666666666667</v>
+        <v>0.2807570977917981</v>
       </c>
       <c r="L58">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="M58">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>44</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2553,13 +2565,13 @@
         <v>76</v>
       </c>
       <c r="K59">
-        <v>0.2647058823529412</v>
+        <v>0.2781456953642384</v>
       </c>
       <c r="L59">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="M59">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2571,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>575</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2579,25 +2591,25 @@
         <v>77</v>
       </c>
       <c r="K60">
-        <v>0.25</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="L60">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="M60">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>48</v>
+        <v>570</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2605,13 +2617,13 @@
         <v>78</v>
       </c>
       <c r="K61">
-        <v>0.2432432432432433</v>
+        <v>0.2685185185185185</v>
       </c>
       <c r="L61">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M61">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2623,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2631,13 +2643,13 @@
         <v>79</v>
       </c>
       <c r="K62">
-        <v>0.2377049180327869</v>
+        <v>0.2679045092838196</v>
       </c>
       <c r="L62">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="M62">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2646,10 +2658,10 @@
         <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>93</v>
+        <v>552</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2657,13 +2669,13 @@
         <v>80</v>
       </c>
       <c r="K63">
-        <v>0.2376237623762376</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="L63">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M63">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2675,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2683,13 +2695,13 @@
         <v>81</v>
       </c>
       <c r="K64">
-        <v>0.2307692307692308</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="L64">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M64">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2701,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>50</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2709,13 +2721,13 @@
         <v>82</v>
       </c>
       <c r="K65">
-        <v>0.2235294117647059</v>
+        <v>0.2348993288590604</v>
       </c>
       <c r="L65">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M65">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2727,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>66</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2735,25 +2747,25 @@
         <v>83</v>
       </c>
       <c r="K66">
-        <v>0.2158469945355191</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L66">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="M66">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="N66">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>287</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2761,13 +2773,13 @@
         <v>84</v>
       </c>
       <c r="K67">
-        <v>0.2117647058823529</v>
+        <v>0.2130584192439862</v>
       </c>
       <c r="L67">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="M67">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2779,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>67</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2787,25 +2799,25 @@
         <v>85</v>
       </c>
       <c r="K68">
-        <v>0.206140350877193</v>
+        <v>0.2119565217391304</v>
       </c>
       <c r="L68">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="M68">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>362</v>
+        <v>290</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2813,25 +2825,25 @@
         <v>86</v>
       </c>
       <c r="K69">
-        <v>0.1964285714285714</v>
+        <v>0.2117647058823529</v>
       </c>
       <c r="L69">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M69">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N69">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2839,25 +2851,25 @@
         <v>87</v>
       </c>
       <c r="K70">
-        <v>0.1937799043062201</v>
+        <v>0.21</v>
       </c>
       <c r="L70">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="M70">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="N70">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>337</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2865,25 +2877,25 @@
         <v>88</v>
       </c>
       <c r="K71">
-        <v>0.1926829268292683</v>
+        <v>0.2065217391304348</v>
       </c>
       <c r="L71">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="M71">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="N71">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>331</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2891,13 +2903,13 @@
         <v>89</v>
       </c>
       <c r="K72">
-        <v>0.1923076923076923</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="L72">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M72">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2909,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2917,13 +2929,13 @@
         <v>90</v>
       </c>
       <c r="K73">
-        <v>0.1904761904761905</v>
+        <v>0.201219512195122</v>
       </c>
       <c r="L73">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M73">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2935,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>85</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2943,13 +2955,13 @@
         <v>91</v>
       </c>
       <c r="K74">
-        <v>0.1858974358974359</v>
+        <v>0.1957040572792363</v>
       </c>
       <c r="L74">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="M74">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2961,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>127</v>
+        <v>337</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2969,25 +2981,25 @@
         <v>92</v>
       </c>
       <c r="K75">
-        <v>0.1856540084388186</v>
+        <v>0.1907894736842105</v>
       </c>
       <c r="L75">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="M75">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="N75">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>193</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2995,13 +3007,13 @@
         <v>93</v>
       </c>
       <c r="K76">
-        <v>0.1834862385321101</v>
+        <v>0.1849148418491484</v>
       </c>
       <c r="L76">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="M76">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -3013,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>89</v>
+        <v>335</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -3021,13 +3033,13 @@
         <v>94</v>
       </c>
       <c r="K77">
-        <v>0.1818181818181818</v>
+        <v>0.1809523809523809</v>
       </c>
       <c r="L77">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="M77">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3039,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>360</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -3047,25 +3059,25 @@
         <v>95</v>
       </c>
       <c r="K78">
-        <v>0.1812080536912752</v>
+        <v>0.1799544419134396</v>
       </c>
       <c r="L78">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="M78">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>122</v>
+        <v>360</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -3073,25 +3085,25 @@
         <v>96</v>
       </c>
       <c r="K79">
-        <v>0.1786941580756014</v>
+        <v>0.1784386617100372</v>
       </c>
       <c r="L79">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M79">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -3099,13 +3111,13 @@
         <v>97</v>
       </c>
       <c r="K80">
-        <v>0.1768292682926829</v>
+        <v>0.1782945736434109</v>
       </c>
       <c r="L80">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M80">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3117,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>135</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3125,13 +3137,13 @@
         <v>98</v>
       </c>
       <c r="K81">
-        <v>0.1709401709401709</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="L81">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M81">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3143,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3151,13 +3163,13 @@
         <v>99</v>
       </c>
       <c r="K82">
-        <v>0.1705426356589147</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="L82">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M82">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3169,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>107</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3177,13 +3189,13 @@
         <v>100</v>
       </c>
       <c r="K83">
-        <v>0.17</v>
+        <v>0.1717791411042945</v>
       </c>
       <c r="L83">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M83">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3195,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>83</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3203,13 +3215,13 @@
         <v>101</v>
       </c>
       <c r="K84">
-        <v>0.1666666666666667</v>
+        <v>0.1704545454545454</v>
       </c>
       <c r="L84">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="M84">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3221,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>225</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3232,22 +3244,22 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="L85">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="M85">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="N85">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O85">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>225</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3255,25 +3267,25 @@
         <v>103</v>
       </c>
       <c r="K86">
-        <v>0.1604938271604938</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L86">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="M86">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="N86">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O86">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>136</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3281,25 +3293,25 @@
         <v>104</v>
       </c>
       <c r="K87">
-        <v>0.1515151515151515</v>
+        <v>0.152</v>
       </c>
       <c r="L87">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M87">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3307,13 +3319,13 @@
         <v>105</v>
       </c>
       <c r="K88">
-        <v>0.1468926553672316</v>
+        <v>0.1448087431693989</v>
       </c>
       <c r="L88">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="M88">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3325,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>151</v>
+        <v>313</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3333,25 +3345,25 @@
         <v>106</v>
       </c>
       <c r="K89">
-        <v>0.1450381679389313</v>
+        <v>0.1438848920863309</v>
       </c>
       <c r="L89">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="M89">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>112</v>
+        <v>595</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3359,25 +3371,25 @@
         <v>107</v>
       </c>
       <c r="K90">
-        <v>0.1393939393939394</v>
+        <v>0.1435643564356436</v>
       </c>
       <c r="L90">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M90">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O90">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90">
-        <v>142</v>
+        <v>173</v>
       </c>
     </row>
     <row r="91" spans="10:17">
@@ -3385,25 +3397,25 @@
         <v>108</v>
       </c>
       <c r="K91">
-        <v>0.1349206349206349</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L91">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M91">
         <v>17</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -3411,25 +3423,25 @@
         <v>109</v>
       </c>
       <c r="K92">
-        <v>0.1336633663366337</v>
+        <v>0.138655462184874</v>
       </c>
       <c r="L92">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M92">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N92">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O92">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>175</v>
+        <v>205</v>
       </c>
     </row>
     <row r="93" spans="10:17">
@@ -3437,13 +3449,13 @@
         <v>110</v>
       </c>
       <c r="K93">
-        <v>0.1284153005464481</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L93">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="M93">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -3455,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>319</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94" spans="10:17">
@@ -3463,25 +3475,25 @@
         <v>111</v>
       </c>
       <c r="K94">
-        <v>0.125</v>
+        <v>0.1328671328671329</v>
       </c>
       <c r="L94">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M94">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94">
-        <v>217</v>
+        <v>124</v>
       </c>
     </row>
     <row r="95" spans="10:17">
@@ -3489,25 +3501,25 @@
         <v>112</v>
       </c>
       <c r="K95">
-        <v>0.1188811188811189</v>
+        <v>0.1242937853107345</v>
       </c>
       <c r="L95">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M95">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N95">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O95">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>126</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96" spans="10:17">
@@ -3515,25 +3527,25 @@
         <v>113</v>
       </c>
       <c r="K96">
-        <v>0.1161048689138577</v>
+        <v>0.114018691588785</v>
       </c>
       <c r="L96">
+        <v>122</v>
+      </c>
+      <c r="M96">
         <v>124</v>
       </c>
-      <c r="M96">
-        <v>128</v>
-      </c>
       <c r="N96">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O96">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P96" t="b">
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>944</v>
+        <v>948</v>
       </c>
     </row>
     <row r="97" spans="10:17">
@@ -3541,25 +3553,25 @@
         <v>114</v>
       </c>
       <c r="K97">
-        <v>0.1147776183644189</v>
+        <v>0.1135135135135135</v>
       </c>
       <c r="L97">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="M97">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="N97">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O97">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q97">
-        <v>617</v>
+        <v>164</v>
       </c>
     </row>
     <row r="98" spans="10:17">
@@ -3567,25 +3579,25 @@
         <v>115</v>
       </c>
       <c r="K98">
-        <v>0.1017811704834606</v>
+        <v>0.1116504854368932</v>
       </c>
       <c r="L98">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M98">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N98">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="O98">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P98" t="b">
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>353</v>
+        <v>183</v>
       </c>
     </row>
     <row r="99" spans="10:17">
@@ -3593,25 +3605,25 @@
         <v>116</v>
       </c>
       <c r="K99">
-        <v>0.1014492753623188</v>
+        <v>0.1045751633986928</v>
       </c>
       <c r="L99">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M99">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N99">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O99">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>186</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" spans="10:17">
@@ -3619,13 +3631,13 @@
         <v>117</v>
       </c>
       <c r="K100">
-        <v>0.09926470588235294</v>
+        <v>0.1</v>
       </c>
       <c r="L100">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M100">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3637,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>245</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101" spans="10:17">
@@ -3645,7 +3657,7 @@
         <v>118</v>
       </c>
       <c r="K101">
-        <v>0.09740259740259741</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="L101">
         <v>15</v>
@@ -3663,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="10:17">
@@ -3671,25 +3683,25 @@
         <v>119</v>
       </c>
       <c r="K102">
-        <v>0.09375</v>
+        <v>0.09116022099447514</v>
       </c>
       <c r="L102">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M102">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="N102">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O102">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q102">
-        <v>145</v>
+        <v>329</v>
       </c>
     </row>
     <row r="103" spans="10:17">
@@ -3697,25 +3709,25 @@
         <v>120</v>
       </c>
       <c r="K103">
-        <v>0.09166666666666666</v>
+        <v>0.0872093023255814</v>
       </c>
       <c r="L103">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="M103">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="N103">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="O103">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="P103" t="b">
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>327</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104" spans="10:17">
@@ -3723,25 +3735,25 @@
         <v>121</v>
       </c>
       <c r="K104">
-        <v>0.08631211857018309</v>
+        <v>0.0851581508515815</v>
       </c>
       <c r="L104">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="M104">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="N104">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="O104">
-        <v>0.08999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P104" t="b">
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>1048</v>
+        <v>376</v>
       </c>
     </row>
     <row r="105" spans="10:17">
@@ -3749,25 +3761,25 @@
         <v>122</v>
       </c>
       <c r="K105">
-        <v>0.08152173913043478</v>
+        <v>0.08487084870848709</v>
       </c>
       <c r="L105">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M105">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N105">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O105">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P105" t="b">
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>169</v>
+        <v>248</v>
       </c>
     </row>
     <row r="106" spans="10:17">
@@ -3775,25 +3787,25 @@
         <v>123</v>
       </c>
       <c r="K106">
-        <v>0.07766990291262135</v>
+        <v>0.0846774193548387</v>
       </c>
       <c r="L106">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M106">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="N106">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O106">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106">
-        <v>475</v>
+        <v>227</v>
       </c>
     </row>
     <row r="107" spans="10:17">
@@ -3801,25 +3813,25 @@
         <v>124</v>
       </c>
       <c r="K107">
-        <v>0.07614213197969544</v>
+        <v>0.0805892547660312</v>
       </c>
       <c r="L107">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="M107">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="N107">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O107">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P107" t="b">
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>182</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="108" spans="10:17">
@@ -3827,25 +3839,25 @@
         <v>125</v>
       </c>
       <c r="K108">
-        <v>0.07380073800738007</v>
+        <v>0.07578558225508318</v>
       </c>
       <c r="L108">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M108">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N108">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O108">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q108">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="109" spans="10:17">
@@ -3853,25 +3865,25 @@
         <v>126</v>
       </c>
       <c r="K109">
-        <v>0.06796116504854369</v>
+        <v>0.07543520309477757</v>
       </c>
       <c r="L109">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M109">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N109">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="O109">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="P109" t="b">
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>384</v>
+        <v>478</v>
       </c>
     </row>
     <row r="110" spans="10:17">
@@ -3879,25 +3891,25 @@
         <v>127</v>
       </c>
       <c r="K110">
-        <v>0.06336088154269973</v>
+        <v>0.06923076923076923</v>
       </c>
       <c r="L110">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M110">
         <v>31</v>
       </c>
       <c r="N110">
-        <v>0.74</v>
+        <v>0.87</v>
       </c>
       <c r="O110">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="P110" t="b">
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>340</v>
+        <v>363</v>
       </c>
     </row>
     <row r="111" spans="10:17">
@@ -3905,59 +3917,59 @@
         <v>128</v>
       </c>
       <c r="K111">
-        <v>0.0463768115942029</v>
+        <v>0.06722689075630252</v>
       </c>
       <c r="L111">
         <v>16</v>
       </c>
       <c r="M111">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N111">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O111">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q111">
-        <v>329</v>
+        <v>222</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="K112">
-        <v>0.04122340425531915</v>
+        <v>0.06140350877192982</v>
       </c>
       <c r="L112">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M112">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="N112">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="O112">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>721</v>
+        <v>321</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K113">
-        <v>0.02465753424657534</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="L113">
         <v>18</v>
@@ -3975,7 +3987,85 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>712</v>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="114" spans="10:17">
+      <c r="J114" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K114">
+        <v>0.04261363636363636</v>
+      </c>
+      <c r="L114">
+        <v>15</v>
+      </c>
+      <c r="M114">
+        <v>21</v>
+      </c>
+      <c r="N114">
+        <v>0.71</v>
+      </c>
+      <c r="O114">
+        <v>0.29</v>
+      </c>
+      <c r="P114" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q114">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="115" spans="10:17">
+      <c r="J115" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K115">
+        <v>0.03978779840848806</v>
+      </c>
+      <c r="L115">
+        <v>30</v>
+      </c>
+      <c r="M115">
+        <v>43</v>
+      </c>
+      <c r="N115">
+        <v>0.7</v>
+      </c>
+      <c r="O115">
+        <v>0.3</v>
+      </c>
+      <c r="P115" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q115">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="116" spans="10:17">
+      <c r="J116" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K116">
+        <v>0.02469135802469136</v>
+      </c>
+      <c r="L116">
+        <v>18</v>
+      </c>
+      <c r="M116">
+        <v>24</v>
+      </c>
+      <c r="N116">
+        <v>0.75</v>
+      </c>
+      <c r="O116">
+        <v>0.25</v>
+      </c>
+      <c r="P116" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q116">
+        <v>711</v>
       </c>
     </row>
   </sheetData>
